--- a/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1888</v>
+        <v>1817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11980</v>
+        <v>11650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01472037466952882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005058763356021065</v>
+        <v>0.004869625469539773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03210090738598607</v>
+        <v>0.03121674653441783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>17983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10741</v>
+        <v>9931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28405</v>
+        <v>28226</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03059700766347308</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01827486941451889</v>
+        <v>0.01689595570740805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04832811423887612</v>
+        <v>0.04802457220135904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>23477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15331</v>
+        <v>15076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34895</v>
+        <v>35502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02443117618467584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01595470010205335</v>
+        <v>0.0156890333359961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03631337855425348</v>
+        <v>0.03694534166998094</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10022</v>
+        <v>10322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25206</v>
+        <v>25504</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04375668434153854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02685626683170618</v>
+        <v>0.02765835170188605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06754218142441146</v>
+        <v>0.06834099961635152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>16641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10242</v>
+        <v>10150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26052</v>
+        <v>26878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02831333652626809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01742497355062331</v>
+        <v>0.01726992801823752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04432582563622066</v>
+        <v>0.04573053044175876</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>32971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22835</v>
+        <v>23272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45852</v>
+        <v>46712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03431089785641466</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02376345609314687</v>
+        <v>0.02421840404201133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04771576181659416</v>
+        <v>0.04861121816165249</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>351366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>341939</v>
+        <v>341641</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>359308</v>
+        <v>358954</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9415229409889326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9162628948353311</v>
+        <v>0.9154638638000048</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.962805507617877</v>
+        <v>0.9618545243913464</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>541</v>
@@ -907,19 +907,19 @@
         <v>553125</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>537931</v>
+        <v>539071</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>562326</v>
+        <v>562671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9410896558102588</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.915240125971702</v>
+        <v>0.9171785185987626</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9567451552796121</v>
+        <v>0.9573327409028517</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>916</v>
@@ -928,19 +928,19 @@
         <v>904491</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>886086</v>
+        <v>889090</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>917226</v>
+        <v>917564</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9412579259589094</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9221054996725826</v>
+        <v>0.925231119566518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9545107746650987</v>
+        <v>0.9548631360337725</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9364</v>
+        <v>8388</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0198804174569958</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1063071998428909</v>
+        <v>0.09523013623314464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10343</v>
+        <v>9774</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01924357838263323</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06881877783930655</v>
+        <v>0.06502885305322544</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>2573</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7272</v>
+        <v>7122</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02921567559837589</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009143322131295513</v>
+        <v>0.009013111472004894</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0825546447617221</v>
+        <v>0.08085850921584233</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5676</v>
+        <v>5005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01806781192418755</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.091242659020616</v>
+        <v>0.08044432748561044</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1145,19 +1145,19 @@
         <v>3697</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>842</v>
+        <v>952</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8799</v>
+        <v>10896</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02460121341078333</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005601128587813198</v>
+        <v>0.006332930795009101</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0585438009131773</v>
+        <v>0.07249621491368965</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>83758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76869</v>
+        <v>77257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87107</v>
+        <v>86486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9509039069446283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8726875650423362</v>
+        <v>0.8770959955458267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9889238094674387</v>
+        <v>0.9818745294898118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1195,7 +1195,7 @@
         <v>59947</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54320</v>
+        <v>55252</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>62212</v>
@@ -1204,7 +1204,7 @@
         <v>0.9635902803941224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8731502065927642</v>
+        <v>0.8881296646281885</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1216,19 +1216,19 @@
         <v>143705</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137007</v>
+        <v>135414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147756</v>
+        <v>148029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9561552082065834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9115897596206104</v>
+        <v>0.9009896536338394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9831032588363287</v>
+        <v>0.9849220009655433</v>
       </c>
     </row>
     <row r="11">
@@ -1536,19 +1536,19 @@
         <v>7245</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2784</v>
+        <v>2867</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14408</v>
+        <v>14412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01441809987404169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005540652978728638</v>
+        <v>0.005706213084557945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02867365366648616</v>
+        <v>0.02868307430575869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1557,19 +1557,19 @@
         <v>19124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11481</v>
+        <v>11577</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29687</v>
+        <v>29993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02825542475754658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01696330761689787</v>
+        <v>0.0171040510530135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04386157750209649</v>
+        <v>0.04431244599907519</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1578,19 +1578,19 @@
         <v>26369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17296</v>
+        <v>17891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38089</v>
+        <v>39753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02235977634296704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01466587859601042</v>
+        <v>0.01517086112667945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03229780288102699</v>
+        <v>0.03370861545688648</v>
       </c>
     </row>
     <row r="17">
@@ -1607,19 +1607,19 @@
         <v>18903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11710</v>
+        <v>12484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28069</v>
+        <v>28613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03762027967193211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02330593310157119</v>
+        <v>0.02484544981174411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05586214034409136</v>
+        <v>0.05694494872669317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1628,19 +1628,19 @@
         <v>17765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10686</v>
+        <v>10771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27338</v>
+        <v>27269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02624715923202036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01578745328979385</v>
+        <v>0.01591415225280615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04039063373303959</v>
+        <v>0.04028819979137103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1649,19 +1649,19 @@
         <v>36668</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25873</v>
+        <v>26258</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49635</v>
+        <v>50270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03109288772758518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02193919458647274</v>
+        <v>0.02226546291443803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04208846217022089</v>
+        <v>0.04262663453013012</v>
       </c>
     </row>
     <row r="18">
@@ -1678,19 +1678,19 @@
         <v>476318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>465949</v>
+        <v>464648</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>484610</v>
+        <v>484327</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9479616204540262</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9273245961582749</v>
+        <v>0.924734930898388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9644642018441343</v>
+        <v>0.9639002161145193</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>626</v>
@@ -1699,19 +1699,19 @@
         <v>639952</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>626865</v>
+        <v>627579</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>650695</v>
+        <v>650948</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.945497416010433</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9261617831071114</v>
+        <v>0.9272163529897057</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9613690840457205</v>
+        <v>0.9617427551384777</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1121</v>
@@ -1720,19 +1720,19 @@
         <v>1116271</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1100261</v>
+        <v>1099327</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1130373</v>
+        <v>1130302</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9465473359294477</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9329715509956085</v>
+        <v>0.9321797971421373</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9585051405879949</v>
+        <v>0.9584448090069819</v>
       </c>
     </row>
     <row r="19">
@@ -2063,19 +2063,19 @@
         <v>17763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10468</v>
+        <v>11135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28181</v>
+        <v>27755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04286431994328922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02526078254271894</v>
+        <v>0.0268695459649035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06800544914649694</v>
+        <v>0.06697650216562222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2084,19 +2084,19 @@
         <v>27915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18442</v>
+        <v>18487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39782</v>
+        <v>40574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04399183148784011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02906305653985123</v>
+        <v>0.02913425534565401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06269449395523786</v>
+        <v>0.0639419190863867</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -2105,19 +2105,19 @@
         <v>45678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32923</v>
+        <v>33462</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62510</v>
+        <v>60597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0435463940073473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03138698022879585</v>
+        <v>0.03190040727910229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05959307699275589</v>
+        <v>0.05776979971555318</v>
       </c>
     </row>
     <row r="5">
@@ -2134,19 +2134,19 @@
         <v>32335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21418</v>
+        <v>21624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46684</v>
+        <v>46142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0780276513050672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0516843369572182</v>
+        <v>0.05218153257737409</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1126546924363978</v>
+        <v>0.1113471759642222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -2155,19 +2155,19 @@
         <v>42715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30186</v>
+        <v>30584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57059</v>
+        <v>57827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06731551247538479</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0475713162907712</v>
+        <v>0.04819763354417607</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08992181929221714</v>
+        <v>0.09113130802930948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -2176,19 +2176,19 @@
         <v>75049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58036</v>
+        <v>57643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95561</v>
+        <v>93070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0715474763555272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05532846598020891</v>
+        <v>0.0549533422466866</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0911022181567081</v>
+        <v>0.08872792869518296</v>
       </c>
     </row>
     <row r="6">
@@ -2205,19 +2205,19 @@
         <v>364301</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>349316</v>
+        <v>350250</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>377924</v>
+        <v>376909</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8791080287516436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8429482516134306</v>
+        <v>0.8452017917445108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9119839133530783</v>
+        <v>0.909533567741927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>531</v>
@@ -2226,19 +2226,19 @@
         <v>563915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>546095</v>
+        <v>546796</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>580380</v>
+        <v>578784</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8886926560367751</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8606090445377926</v>
+        <v>0.8617138195013982</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9146402200653866</v>
+        <v>0.9121247634450417</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>866</v>
@@ -2247,19 +2247,19 @@
         <v>928215</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>902842</v>
+        <v>905383</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>948249</v>
+        <v>948628</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8849061296371254</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8607168268062693</v>
+        <v>0.8631396582342671</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9040050964351944</v>
+        <v>0.9043668561307123</v>
       </c>
     </row>
     <row r="7">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6442</v>
+        <v>7258</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01218793875789436</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05428486947924893</v>
+        <v>0.06116146477156573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2393,19 +2393,19 @@
         <v>3870</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1052</v>
+        <v>1098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9301</v>
+        <v>10386</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01918454882811993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005216023392135082</v>
+        <v>0.00544326841773628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04610524576067192</v>
+        <v>0.05148471637280525</v>
       </c>
     </row>
     <row r="9">
@@ -2422,19 +2422,19 @@
         <v>4127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9797</v>
+        <v>9894</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03478278560955348</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00882926633315923</v>
+        <v>0.008701164340346353</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08256367190808936</v>
+        <v>0.08337545184657032</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5978</v>
+        <v>6651</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01323591949503647</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07196523649391837</v>
+        <v>0.08005915792378465</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -2464,19 +2464,19 @@
         <v>5227</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11585</v>
+        <v>11615</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02590997508281255</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00982607440135851</v>
+        <v>0.009852481749636134</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05742615839313357</v>
+        <v>0.05757202291195862</v>
       </c>
     </row>
     <row r="10">
@@ -2493,19 +2493,19 @@
         <v>113091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106153</v>
+        <v>106230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116640</v>
+        <v>116583</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9530292756325521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8945638340824716</v>
+        <v>0.8952062160845571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9829352380282944</v>
+        <v>0.9824560681440635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2514,19 +2514,19 @@
         <v>79550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73194</v>
+        <v>73028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81986</v>
+        <v>81991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9575854689513089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8810720533352894</v>
+        <v>0.8790684226276454</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9869050722549964</v>
+        <v>0.9869581738600594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2535,19 +2535,19 @@
         <v>192642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185003</v>
+        <v>185149</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198021</v>
+        <v>197542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9549054760890675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9170395181267261</v>
+        <v>0.9177628336893333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9815686198132983</v>
+        <v>0.9791955015163049</v>
       </c>
     </row>
     <row r="11">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="14">
@@ -2762,7 +2762,7 @@
         <v>21146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22246</v>
@@ -2771,7 +2771,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>47721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42972</v>
+        <v>43035</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>48821</v>
@@ -2792,7 +2792,7 @@
         <v>0.9774773962486789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801900104656916</v>
+        <v>0.8814908744658403</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2887,19 +2887,19 @@
         <v>19209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11564</v>
+        <v>11868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30076</v>
+        <v>28999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03432430949097351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02066403025955053</v>
+        <v>0.02120735158087489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05374149188419765</v>
+        <v>0.0518171831798356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -2908,19 +2908,19 @@
         <v>30339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19843</v>
+        <v>21282</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43846</v>
+        <v>44673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04100582653420819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02682021027692153</v>
+        <v>0.02876447549045588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.059261946770555</v>
+        <v>0.06037954635528951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -2929,19 +2929,19 @@
         <v>49548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36137</v>
+        <v>35718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66230</v>
+        <v>64304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03812839776861993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02780833973111094</v>
+        <v>0.02748597259935629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05096591631178721</v>
+        <v>0.04948338472336862</v>
       </c>
     </row>
     <row r="17">
@@ -2958,19 +2958,19 @@
         <v>36462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25069</v>
+        <v>25287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51609</v>
+        <v>52936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06515289036778553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04479538335827665</v>
+        <v>0.04518507511609017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09221930553812853</v>
+        <v>0.0945903448280994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -2979,19 +2979,19 @@
         <v>44914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32980</v>
+        <v>32901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58749</v>
+        <v>60312</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06070543752917536</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04457511539800611</v>
+        <v>0.04446954451642092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07940446282364928</v>
+        <v>0.08151722927273373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -3000,19 +3000,19 @@
         <v>81376</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64630</v>
+        <v>64552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103241</v>
+        <v>101061</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06262075536023168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04973479829266638</v>
+        <v>0.04967450028077294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07944654736438388</v>
+        <v>0.07776898237768011</v>
       </c>
     </row>
     <row r="18">
@@ -3029,19 +3029,19 @@
         <v>503966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>487114</v>
+        <v>486612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>517171</v>
+        <v>517510</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.900522800141241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8704107597377291</v>
+        <v>0.8695131017917431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.924119026237864</v>
+        <v>0.9247236303104305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>622</v>
@@ -3050,19 +3050,19 @@
         <v>664612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>645520</v>
+        <v>646576</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>680386</v>
+        <v>681240</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8982887359366165</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8724838440828498</v>
+        <v>0.8739109779641272</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.91960773540415</v>
+        <v>0.9207631076926942</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1078</v>
@@ -3071,19 +3071,19 @@
         <v>1168578</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1145383</v>
+        <v>1145697</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1191794</v>
+        <v>1192270</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8992508468711484</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8814015010781306</v>
+        <v>0.8816427393687721</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9171159441750357</v>
+        <v>0.9174824792160827</v>
       </c>
     </row>
     <row r="19">
@@ -3414,19 +3414,19 @@
         <v>8491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4362</v>
+        <v>4112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15497</v>
+        <v>14845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02399330707026271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01232644897832972</v>
+        <v>0.01161843818539114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04378977115886827</v>
+        <v>0.04194686179120225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3435,19 +3435,19 @@
         <v>14093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7945</v>
+        <v>7922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26237</v>
+        <v>25232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02540319143180023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01432117374746749</v>
+        <v>0.01428001271837168</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04729394155043142</v>
+        <v>0.04548373869036996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -3456,19 +3456,19 @@
         <v>22584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14501</v>
+        <v>13443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34268</v>
+        <v>33060</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02485407396692094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01595823792795308</v>
+        <v>0.01479460359998417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03771250475969176</v>
+        <v>0.03638355562173771</v>
       </c>
     </row>
     <row r="5">
@@ -3485,19 +3485,19 @@
         <v>10656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5569</v>
+        <v>5329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18010</v>
+        <v>17611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03010925450990928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01573694778713124</v>
+        <v>0.01505913407484966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0508891138280396</v>
+        <v>0.0497622904077401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3506,19 +3506,19 @@
         <v>39389</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26996</v>
+        <v>27620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53062</v>
+        <v>53732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07100266264500336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04866355290511275</v>
+        <v>0.04978751487402012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09564957257912253</v>
+        <v>0.09685652035992302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -3527,19 +3527,19 @@
         <v>50045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36215</v>
+        <v>35613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65610</v>
+        <v>64420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05507562265646915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03985600151441882</v>
+        <v>0.03919337715501912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07220580288565366</v>
+        <v>0.07089614125119974</v>
       </c>
     </row>
     <row r="6">
@@ -3556,19 +3556,19 @@
         <v>334754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>325928</v>
+        <v>326273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>341561</v>
+        <v>342159</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.945897438419828</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9209572400415006</v>
+        <v>0.9219318070747006</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9651306806397895</v>
+        <v>0.9668199241568904</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>428</v>
@@ -3577,19 +3577,19 @@
         <v>501275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>484907</v>
+        <v>484468</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>514626</v>
+        <v>515506</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9035941459231964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8740894729861158</v>
+        <v>0.8732985374661055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9276599195796212</v>
+        <v>0.929247230255928</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>792</v>
@@ -3598,19 +3598,19 @@
         <v>836029</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>817511</v>
+        <v>818538</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>852526</v>
+        <v>852132</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9200703033766099</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8996906175428601</v>
+        <v>0.900820418051076</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9382250574571673</v>
+        <v>0.9377921525536682</v>
       </c>
     </row>
     <row r="7">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4204</v>
+        <v>5087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004344546605370757</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02183280078482004</v>
+        <v>0.02642218482771112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4263</v>
+        <v>4226</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002197716880808622</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01120048962690213</v>
+        <v>0.01110219341460257</v>
       </c>
     </row>
     <row r="9">
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5867</v>
+        <v>5931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008639165903028634</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03047526427582999</v>
+        <v>0.03080627775167847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6671</v>
+        <v>7109</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01108300621972867</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03547069937168254</v>
+        <v>0.03779629375841217</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3807,19 +3807,19 @@
         <v>3748</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>893</v>
+        <v>1182</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8687</v>
+        <v>9448</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009846773856293357</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00234543535359301</v>
+        <v>0.003106013318357164</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02282468596906633</v>
+        <v>0.02482320106524358</v>
       </c>
     </row>
     <row r="10">
@@ -3836,19 +3836,19 @@
         <v>190032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186291</v>
+        <v>185052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191731</v>
+        <v>191736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9870162874916006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9675870334511769</v>
+        <v>0.961147142759022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9958405414157746</v>
+        <v>0.9958669793754549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -3857,7 +3857,7 @@
         <v>185990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181403</v>
+        <v>180965</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>188074</v>
@@ -3866,7 +3866,7 @@
         <v>0.9889169937802713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9645293006283175</v>
+        <v>0.9622037062415876</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3878,19 +3878,19 @@
         <v>376022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370678</v>
+        <v>370669</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378948</v>
+        <v>378959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.987955509262898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9739145140222255</v>
+        <v>0.9738926108505946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9956426551400148</v>
+        <v>0.9956734886350765</v>
       </c>
     </row>
     <row r="11">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5599</v>
+        <v>6169</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0249934901811217</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1332229566406465</v>
+        <v>0.1467860816488092</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8716</v>
+        <v>8925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03204934278450401</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1151312854601922</v>
+        <v>0.1178934629590241</v>
       </c>
     </row>
     <row r="13">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4561</v>
+        <v>4453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02066047213405714</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1085295393418109</v>
+        <v>0.1059619870850846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5320</v>
+        <v>3765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01147035268178621</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07027735121572988</v>
+        <v>0.04973568468037043</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>40110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35357</v>
+        <v>35467</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>42029</v>
@@ -4125,7 +4125,7 @@
         <v>0.9543460376848212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8412452294905776</v>
+        <v>0.8438731009332359</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4146,7 +4146,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4158,19 +4158,19 @@
         <v>72408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66083</v>
+        <v>65304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74837</v>
+        <v>74851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9564803045337098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.87292528919769</v>
+        <v>0.8626354901390829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9885609007881231</v>
+        <v>0.9887422541510124</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>10378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5751</v>
+        <v>5311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17617</v>
+        <v>16816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01763609856093613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009773005817122498</v>
+        <v>0.009024537152728317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02993707919821692</v>
+        <v>0.02857573156174881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4283,19 +4283,19 @@
         <v>15468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8198</v>
+        <v>8953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25981</v>
+        <v>26881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01992051157686989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01055720841077374</v>
+        <v>0.01153024411635071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03345885548029798</v>
+        <v>0.03461815581403021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -4304,19 +4304,19 @@
         <v>25847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16993</v>
+        <v>15978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38496</v>
+        <v>38322</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01893565902516272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01244944884214948</v>
+        <v>0.01170585506387741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02820292253395969</v>
+        <v>0.02807532609205046</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>13187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7523</v>
+        <v>7570</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20386</v>
+        <v>20612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02240986162801149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01278480265965755</v>
+        <v>0.0128645078085164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03464290100617534</v>
+        <v>0.03502648985680307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -4354,19 +4354,19 @@
         <v>41474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29479</v>
+        <v>29066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55623</v>
+        <v>56392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05341065389127844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03796414873131396</v>
+        <v>0.03743183051546997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07163213794071617</v>
+        <v>0.07262243612457628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -4375,19 +4375,19 @@
         <v>54661</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41363</v>
+        <v>40647</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71669</v>
+        <v>72129</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04004564101818265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03030329782081606</v>
+        <v>0.0297789890972466</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05250632491606377</v>
+        <v>0.05284330640917075</v>
       </c>
     </row>
     <row r="18">
@@ -4404,19 +4404,19 @@
         <v>564897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>555291</v>
+        <v>555844</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>572543</v>
+        <v>572804</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9599540398110524</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9436292002040916</v>
+        <v>0.9445683381196235</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9729472859985612</v>
+        <v>0.9733893494315361</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>608</v>
@@ -4425,19 +4425,19 @@
         <v>719563</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>702025</v>
+        <v>701472</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>733604</v>
+        <v>733408</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9266688345318517</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9040824232138982</v>
+        <v>0.9033714733539769</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9447509491514284</v>
+        <v>0.944498590664887</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1205</v>
@@ -4446,19 +4446,19 @@
         <v>1284460</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1265583</v>
+        <v>1266040</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1301993</v>
+        <v>1302288</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9410186999566547</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9271888705873886</v>
+        <v>0.9275235295709329</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9538637340909991</v>
+        <v>0.9540793940486234</v>
       </c>
     </row>
     <row r="19">
@@ -4789,19 +4789,19 @@
         <v>4492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1919</v>
+        <v>2210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8033</v>
+        <v>8137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01548485672864153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006615502526817289</v>
+        <v>0.007619085591791355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02768953058356187</v>
+        <v>0.02804910198238261</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4810,19 +4810,19 @@
         <v>22243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15633</v>
+        <v>15875</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30196</v>
+        <v>30547</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04128414394623242</v>
+        <v>0.04128414394623241</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02901640266148969</v>
+        <v>0.02946408818238894</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05604552632315501</v>
+        <v>0.05669724058694879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -4831,19 +4831,19 @@
         <v>26735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20272</v>
+        <v>19831</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35889</v>
+        <v>35275</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03225474815454377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0244575145071259</v>
+        <v>0.02392499681619028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04329793049080807</v>
+        <v>0.04255817174068637</v>
       </c>
     </row>
     <row r="5">
@@ -4860,19 +4860,19 @@
         <v>9688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5791</v>
+        <v>5902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15444</v>
+        <v>15753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03339634492664169</v>
+        <v>0.0333963449266417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01996228702046744</v>
+        <v>0.02034478505508798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05323751102807468</v>
+        <v>0.05430161724545076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -4881,19 +4881,19 @@
         <v>32571</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25124</v>
+        <v>24292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41645</v>
+        <v>41392</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06045221098906072</v>
+        <v>0.06045221098906071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04663163509907693</v>
+        <v>0.04508675318410459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07729525643393122</v>
+        <v>0.07682440282846932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -4902,19 +4902,19 @@
         <v>42259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33029</v>
+        <v>33550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52083</v>
+        <v>52379</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0509830298793622</v>
+        <v>0.05098302987936221</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0398482471697011</v>
+        <v>0.04047625267707351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06283582381211238</v>
+        <v>0.06319333020077066</v>
       </c>
     </row>
     <row r="6">
@@ -4931,19 +4931,19 @@
         <v>275915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>269541</v>
+        <v>269460</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>280862</v>
+        <v>280928</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9511187983447166</v>
+        <v>0.9511187983447168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9291474789345187</v>
+        <v>0.9288667389041011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9681716231851114</v>
+        <v>0.9683992408158885</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>919</v>
@@ -4952,19 +4952,19 @@
         <v>483967</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>472526</v>
+        <v>472951</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>493536</v>
+        <v>495350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8982636450647068</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8770283962343988</v>
+        <v>0.8778167016595563</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9160238247270579</v>
+        <v>0.9193900877431853</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1321</v>
@@ -4973,19 +4973,19 @@
         <v>759882</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>747161</v>
+        <v>748119</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>771210</v>
+        <v>772062</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.916762221966094</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9014146182814793</v>
+        <v>0.902570518286673</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9304290598353122</v>
+        <v>0.9314563038602333</v>
       </c>
     </row>
     <row r="7">
@@ -5077,19 +5077,19 @@
         <v>2179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5497</v>
+        <v>6548</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0071733847077548</v>
+        <v>0.007173384707754801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002000298895348025</v>
+        <v>0.002020164571754747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01809368375639106</v>
+        <v>0.02155175479580761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -5098,19 +5098,19 @@
         <v>3267</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7019</v>
+        <v>6813</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01180408059651574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004522440864416326</v>
+        <v>0.004555640855363585</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02536170404975868</v>
+        <v>0.02461805805278689</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -5119,19 +5119,19 @@
         <v>5446</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2538</v>
+        <v>2609</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10031</v>
+        <v>10191</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009380721663915147</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004371103526924781</v>
+        <v>0.004493734040596305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0172784454428411</v>
+        <v>0.01755315247392854</v>
       </c>
     </row>
     <row r="9">
@@ -5148,19 +5148,19 @@
         <v>5020</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2108</v>
+        <v>2279</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10583</v>
+        <v>10006</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01652334861569199</v>
+        <v>0.016523348615692</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006939361537607595</v>
+        <v>0.007500074297462364</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03483373904198081</v>
+        <v>0.0329323458362888</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -5169,19 +5169,19 @@
         <v>8084</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4766</v>
+        <v>4860</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13476</v>
+        <v>13031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02921246504963441</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01722084195801276</v>
+        <v>0.01756251763087083</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04869677586817872</v>
+        <v>0.04708558253396395</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -5190,19 +5190,19 @@
         <v>13105</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8013</v>
+        <v>8301</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19228</v>
+        <v>19698</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02257193317371557</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01380182534384678</v>
+        <v>0.01429836682271842</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0331195484514626</v>
+        <v>0.03392806326881073</v>
       </c>
     </row>
     <row r="10">
@@ -5219,19 +5219,19 @@
         <v>296625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>290131</v>
+        <v>291035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>300214</v>
+        <v>299892</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9763032666765529</v>
+        <v>0.9763032666765533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9549284233299029</v>
+        <v>0.9579028308796317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9881157925116396</v>
+        <v>0.9870558271583642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>506</v>
@@ -5240,19 +5240,19 @@
         <v>265391</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>259883</v>
+        <v>259410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>269533</v>
+        <v>269240</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9589834543538499</v>
+        <v>0.9589834543538501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9390794716308023</v>
+        <v>0.9373718878864582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9739510048484911</v>
+        <v>0.9728903302574984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -5261,19 +5261,19 @@
         <v>562016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>554497</v>
+        <v>554226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>567851</v>
+        <v>567826</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9680473451623692</v>
+        <v>0.968047345162369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9550949727739282</v>
+        <v>0.9546292266693931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9780968697662853</v>
+        <v>0.9780538895265221</v>
       </c>
     </row>
     <row r="11">
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3711</v>
+        <v>3293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005059567917502414</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03121326296126231</v>
+        <v>0.02769809187343834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01266935743357329</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04138379441458778</v>
+        <v>0.04128199621593702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -5454,19 +5454,19 @@
         <v>1651</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4924</v>
+        <v>4721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008184990823378556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001969559114011102</v>
+        <v>0.001955127081479431</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02440713260041187</v>
+        <v>0.02340153459969533</v>
       </c>
     </row>
     <row r="14">
@@ -5483,7 +5483,7 @@
         <v>118280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115170</v>
+        <v>115588</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>118881</v>
@@ -5492,7 +5492,7 @@
         <v>0.9949404320824975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687867370387376</v>
+        <v>0.972301908126562</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5504,7 +5504,7 @@
         <v>81805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79426</v>
+        <v>79435</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>82855</v>
@@ -5513,7 +5513,7 @@
         <v>0.9873306425664266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9586162055854124</v>
+        <v>0.9587180037840628</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5525,19 +5525,19 @@
         <v>200085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196812</v>
+        <v>197015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>201339</v>
+        <v>201342</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9918150091766216</v>
+        <v>0.9918150091766215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9755928673995881</v>
+        <v>0.9765984654003048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.998030440885989</v>
+        <v>0.9980448729185205</v>
       </c>
     </row>
     <row r="15">
@@ -5629,19 +5629,19 @@
         <v>6672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3417</v>
+        <v>3522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11206</v>
+        <v>11029</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009359603492702985</v>
+        <v>0.009359603492702984</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004793467780530354</v>
+        <v>0.004941131556231351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01572140463250596</v>
+        <v>0.01547308487802733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -5650,19 +5650,19 @@
         <v>25510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19055</v>
+        <v>18097</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34554</v>
+        <v>33258</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.028395388993964</v>
+        <v>0.02839538899396399</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02121067998055505</v>
+        <v>0.02014413499756299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03846319765155707</v>
+        <v>0.03702044259544443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -5671,19 +5671,19 @@
         <v>32181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24711</v>
+        <v>24724</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41934</v>
+        <v>41151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01997377204454093</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01533691980969778</v>
+        <v>0.01534542343669442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02602700070110306</v>
+        <v>0.02554094911540602</v>
       </c>
     </row>
     <row r="17">
@@ -5700,19 +5700,19 @@
         <v>15310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10114</v>
+        <v>9825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22383</v>
+        <v>22737</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02147837671038996</v>
+        <v>0.02147837671038995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01418942687356963</v>
+        <v>0.01378321822748698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03140157933699975</v>
+        <v>0.03189753983468561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -5721,19 +5721,19 @@
         <v>41705</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32972</v>
+        <v>32389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51650</v>
+        <v>52030</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04642203242668225</v>
+        <v>0.04642203242668224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03670212214991862</v>
+        <v>0.03605246833033298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05749281592580076</v>
+        <v>0.05791509601825097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -5742,19 +5742,19 @@
         <v>57014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45584</v>
+        <v>46902</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68815</v>
+        <v>69516</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03538671614057547</v>
+        <v>0.03538671614057548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02829209073649229</v>
+        <v>0.02911024392836807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0427106709967336</v>
+        <v>0.04314612082680656</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>690820</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>682475</v>
+        <v>683007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>697031</v>
+        <v>697517</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9691620197969071</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.957454612064258</v>
+        <v>0.958201809514732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9778754018354825</v>
+        <v>0.9785583050504126</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1575</v>
@@ -5792,19 +5792,19 @@
         <v>831164</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>817488</v>
+        <v>817300</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>840952</v>
+        <v>842651</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9251825785793538</v>
+        <v>0.9251825785793537</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9099595579503932</v>
+        <v>0.9097510951121135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9360777718045766</v>
+        <v>0.937969630048418</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2560</v>
@@ -5813,19 +5813,19 @@
         <v>1521983</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1506290</v>
+        <v>1507144</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1535590</v>
+        <v>1535463</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9446395118148835</v>
+        <v>0.9446395118148836</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9348995014107324</v>
+        <v>0.9354290829803853</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9530845743102156</v>
+        <v>0.9530060724707936</v>
       </c>
     </row>
     <row r="19">
